--- a/material/translation/TermDefinitions/PublicOrganisation.xlsx
+++ b/material/translation/TermDefinitions/PublicOrganisation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ihuedu.sharepoint.com/sites/--/Shared Documents/DE4A/WP3/XSDs/Ana Rosa/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ihuedu.sharepoint.com/sites/--/Shared Documents/DE4A/WP3/XSDs/Ana Rosa/Birth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="126" documentId="11_CD56FEBEDA2BA8BF44DB35C98A7A41E4784DAEAD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B2A9765-AEEC-4A5D-A92C-1A33ABA95EFE}"/>
+  <xr:revisionPtr revIDLastSave="132" documentId="11_CD56FEBEDA2BA8BF44DB35C98A7A41E4784DAEAD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20E9097C-D858-4296-880D-85806DDE0F2F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fr" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="en" sheetId="2" r:id="rId5"/>
     <sheet name="Terms" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="22">
   <si>
     <t>Term</t>
   </si>
@@ -53,52 +53,56 @@
     <t>Verified</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>PublicOrganisation</t>
+  </si>
+  <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>Many organisations are referred to by an acronym or some other identifier. For example, among the EU institutions, the ECB is the identifier for the European Central Bank, OLAF for the European AntiN/AFraud Office, and so on. These are formally recognised by the European Commission which provides a list of such acronyms. Analogous lists should be used in other contexts.</t>
+  </si>
+  <si>
+    <t>Preferred label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As defined in the ORG Ontology, a preferred label is used to provide the primary, legally recognised name of the organisation. An organisation may only have one such name in any given language. Primary names may be provided in multiple languages with multiple instances of the preferred label property.	</t>
+  </si>
+  <si>
+    <t>IRN - 
+Institute of Registry and Notary.</t>
+  </si>
+  <si>
     <t>Term URI</t>
   </si>
   <si>
     <t>Origin</t>
   </si>
   <si>
+    <t>Type</t>
+  </si>
+  <si>
     <t>Optional</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Identifier</t>
+    <t>PublicOrganisation/Identifier</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>PublicOrganisation/PrefLabel</t>
+  </si>
+  <si>
+    <t>udt:TextType</t>
   </si>
   <si>
     <t>UDT/Text</t>
   </si>
   <si>
-    <t>PublicOrganisation</t>
-  </si>
-  <si>
-    <t>PublicOrganisation/Identifier</t>
-  </si>
-  <si>
-    <t>PublicOrganisation/PrefLabel</t>
-  </si>
-  <si>
-    <t>udt:TextType</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
     <t>11</t>
-  </si>
-  <si>
-    <t>Preferred label</t>
-  </si>
-  <si>
-    <t>Many organisations are referred to by an acronym or some other identifier. For example, among the EU institutions, the ECB is the identifier for the European Central Bank, OLAF for the European AntiN/AFraud Office, and so on. These are formally recognised by the European Commission which provides a list of such acronyms. Analogous lists should be used in other contexts.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As defined in the ORG Ontology, a preferred label is used to provide the primary, legally recognised name of the organisation. An organisation may only have one such name in any given language. Primary names may be provided in multiple languages with multiple instances of the preferred label property.	</t>
   </si>
 </sst>
 </file>
@@ -134,12 +138,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,7 +517,7 @@
         <v>PublicOrganisation</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -519,7 +526,7 @@
         <v>PublicOrganisation/Identifier</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -528,7 +535,7 @@
         <v>PublicOrganisation/PrefLabel</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -576,7 +583,7 @@
         <v>PublicOrganisation</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -585,7 +592,7 @@
         <v>PublicOrganisation/Identifier</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -594,7 +601,7 @@
         <v>PublicOrganisation/PrefLabel</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -603,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -642,7 +649,7 @@
         <v>PublicOrganisation</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -651,7 +658,7 @@
         <v>PublicOrganisation/Identifier</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -660,7 +667,7 @@
         <v>PublicOrganisation/PrefLabel</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -713,7 +720,7 @@
         <v>PublicOrganisation</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -722,7 +729,7 @@
         <v>PublicOrganisation/Identifier</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -731,7 +738,7 @@
         <v>PublicOrganisation/PrefLabel</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -747,9 +754,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -782,7 +791,10 @@
         <v>PublicOrganisation</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
@@ -791,10 +803,13 @@
         <v>PublicOrganisation/Identifier</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="72" x14ac:dyDescent="0.3">
@@ -803,16 +818,16 @@
         <v>PublicOrganisation/PrefLabel</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <f>Terms!A17</f>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -824,7 +839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -835,46 +850,46 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -888,12 +903,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Έγγραφο" ma:contentTypeID="0x0101007E289342E878A3439E8711FFF848F32F" ma:contentTypeVersion="11" ma:contentTypeDescription="Δημιουργία νέου εγγράφου" ma:contentTypeScope="" ma:versionID="46ceb6b1ca17f648485ffad8d87a7461">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="387b4333-7bd0-482a-b673-9a586eb2ceee" xmlns:ns3="4aa09831-7f3d-42ba-9b8c-49994d1626d2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a21b98261e948a646c8dae0c6b0aefd5" ns2:_="" ns3:_="">
     <xsd:import namespace="387b4333-7bd0-482a-b673-9a586eb2ceee"/>
@@ -1104,6 +1113,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1114,29 +1129,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C19E8516-EAB9-4337-9110-A421F5E3BDF3}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F4DB1E3-ED74-4131-A145-E5AAC4244613}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3FD51D8-5A43-457B-8F0A-FAD11D35BC87}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="387b4333-7bd0-482a-b673-9a586eb2ceee"/>
-    <ds:schemaRef ds:uri="4aa09831-7f3d-42ba-9b8c-49994d1626d2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
